--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-consent.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-consent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:37:23+00:00</t>
+    <t>2025-11-13T10:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource TDDUIConsent permettant de représenter les attentes de l'usager.</t>
+    <t>Profil de la ressource TDDUIConsent permettant de représenter l'accord de l'usager et de la structure.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-consent.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-consent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
